--- a/Example_Systems/Input_data_explained/Network.xlsx
+++ b/Example_Systems/Input_data_explained/Network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\r900emrp\Maps\Major Studies\2021\GenX\Excel Sheets for GenX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/D/GenX/Code/New_GenX/GenX/Example_Systems/Input_data_explained/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDF7071-46AE-4B27-A15E-EB3527AE9A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D3F8F-C5D5-6443-82F9-2D1B579591C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network" sheetId="1" r:id="rId1"/>
@@ -30,284 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Con Edison</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{1AFBF3F6-404C-4CDE-8D74-164AA0CDD3B0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Numerical index for each network line</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{4420588B-CE19-4F65-A2DB-233E6C39BD6B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Next n columns, one per zone, with column header in format of z* where * is the number of the zone. L rows, one for each network line (or interregional path), with a 1 in the column corresponding to the 'origin' zone and a -1 in the column corresponding to the 'destination' zone for each line. No more than one column may be marked as origin and one as destination for each line, or the model will not function correctly. Note that positive flows indicate flow from origin to destination zone; negative flows indicate flow from destination to origin zone.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{1368441D-9171-4ED5-B685-39AFCF02D5C5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Existing capacity of the inter-regional transmission line.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{798D01E0-2F26-4A28-BA1D-51BE2C614F61}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-fractional transmission loss for each transmission line</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{A3D415D3-60D3-4BDB-B801-44CE029509C5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Line resistance in Ohms (used to calculate I^2R losses)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{882E25B0-BBF1-4C7A-80AB-3E77F7A7210B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Line voltage in kV (used to calculate I^2R losses)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{C058FE39-CB15-46C9-B4A0-715FD5CD91DB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Maximum allowable capacity addition to the existing transmission line.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{5F7B1187-6DA6-4217-A688-620E663A7B19}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Cost of adding new capacity to the inter-regional transmission line.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{38A6CF73-2548-46D6-9850-A15A9241315F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-(0,1) value represents the derating of the firm transmission capacity for the capacity reserve margin constraint.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{B6A8D710-2ABD-48B0-A30B-FDE42496138E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Eligibility of the transmission line for adding firm capacity to the capacity reserve margin constraint. * represents the number of the capacity reserve margin constraint.
- 1 = the transmission line is eligible for adding firm capacity to the region
- 0 = the transmission line is not eligible for adding firm capacity to the region</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{21739932-CD2C-475E-92C0-6B56E6538153}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Con Edison:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-(-1,1,0) = -1 if the designated direction of the transmission line is inbound to locational deliverability area (LDA) modeled by the capacity reserve margin constraint. = 1 if the designated direction of the transmission line is outbound from the LDA modeled by the capacity reserve margin constraint. Zero otherwise.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Network_zones</t>
   </si>
@@ -391,13 +115,43 @@
   </si>
   <si>
     <t>NENGREST_to_NENG_ME</t>
+  </si>
+  <si>
+    <t>region name</t>
+  </si>
+  <si>
+    <t>zone number</t>
+  </si>
+  <si>
+    <t>network line number</t>
+  </si>
+  <si>
+    <t>Next n columns, one per zone, with column header in format of z* where * is the number of the zone. L rows, one for each network line (or interregional path), with a 1 in the column corresponding to the 'origin' zone and a -1 in the column corresponding to the 'destination' zone for each line. No more than one column may be marked as origin and one as destination for each line, or the model will not function correctly. Note that positive flows indicate flow from origin to destination zone; negative flows indicate flow from destination to origin zone.</t>
+  </si>
+  <si>
+    <t>Existing capacity of the inter-regional transmission line.</t>
+  </si>
+  <si>
+    <t>Maximum allowable capacity addition to the existing transmission line.</t>
+  </si>
+  <si>
+    <t>Cost of adding new capacity to the inter-regional transmission line.</t>
+  </si>
+  <si>
+    <t>(0,1) value represents the derating of the firm transmission capacity for the capacity reserve margin constraint.</t>
+  </si>
+  <si>
+    <t>Eligibility of the transmission line for adding firm capacity to the capacity reserve margin constraint. * represents the number of the capacity reserve margin constraint.</t>
+  </si>
+  <si>
+    <t>(-1,1,0) = -1 if the designated direction of the transmission line is inbound to locational deliverability area (LDA) modeled by the capacity reserve margin constraint. = 1 if the designated direction of the transmission line is outbound from the LDA modeled by the capacity reserve margin constraint. Zero otherwise.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,29 +287,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -964,7 +704,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -979,8 +719,11 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -988,14 +731,20 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1053,10 +802,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1355,178 +1100,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="8"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2950</v>
-      </c>
-      <c r="I3">
-        <v>123.05840000000001</v>
-      </c>
-      <c r="L3">
-        <v>2950</v>
-      </c>
-      <c r="M3">
-        <v>12060</v>
-      </c>
-      <c r="N3">
-        <v>0.95</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
       <c r="H4" s="4">
-        <v>2000</v>
+        <v>2950</v>
       </c>
       <c r="I4">
-        <v>196.5385</v>
+        <v>123.05840000000001</v>
       </c>
       <c r="L4">
-        <v>2000</v>
+        <v>2950</v>
       </c>
       <c r="M4">
-        <v>19261</v>
+        <v>12060</v>
       </c>
       <c r="N4">
         <v>0.95</v>
@@ -1538,54 +1277,99 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I5">
+        <v>196.5385</v>
+      </c>
+      <c r="L5">
+        <v>2000</v>
+      </c>
+      <c r="M5">
+        <v>19261</v>
+      </c>
+      <c r="N5">
+        <v>0.95</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D14" s="4"/>
       <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1597,6 +1381,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>